--- a/Consumer/Crocs.xlsx
+++ b/Consumer/Crocs.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B80E74B-0048-A14A-B607-EEB7A1C681B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44037F47-DB7D-814F-8FAD-40462F14C5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$V$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$106:$V$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$19:$V$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$3:$V$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$106:$V$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$19:$V$19</definedName>
-  </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -970,18 +957,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,12 +991,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1039,6 +1008,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2390,11 +2377,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>146.22999999999999</v>
+    <v>151.32</v>
     <v>46.08</v>
-    <v>1.9494</v>
-    <v>0.62</v>
-    <v>4.313E-3</v>
+    <v>1.9446000000000001</v>
+    <v>-6.37</v>
+    <v>-5.5213999999999999E-2</v>
+    <v>-0.4</v>
+    <v>-3.6700000000000001E-3</v>
     <v>USD</v>
     <v>Crocs, Inc. is engaged in the design, development, marketing, distribution, and sale of casual lifestyle footwear and accessories for women, men and children. The Company's Crocs Brands collection contain Croslite material, a proprietary, molded footwear technology. The Company’s segments includes North America for the Crocs Brand, operating throughout the United States of America (US) and Canada; Asia Pacific for the Crocs Brand, operating throughout Asia, Australia, and New Zealand; Europe, Middle East, Africa, and Latin America (EMEALA) for the Crocs Brand; and (iv) the HEYDUDE Brand. The Company sells its products in approximately 85 countries, through two distribution channels: wholesale and direct-to-consumer. Its wholesale channel includes domestic and international multi-brand retailers, mono-branded partner stores, e-tailors and distributors. Its direct-to-consumer channel includes Company-operated retail stores, Company-operated e-commerce sites and third-party marketplaces.</v>
     <v>6680</v>
@@ -2402,24 +2391,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>13601 Via Varra, BROOMFIELD, CO, 80020 US</v>
-    <v>146.22999999999999</v>
+    <v>113.5</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45035.9992909375</v>
+    <v>45065.999785867971</v>
     <v>0</v>
-    <v>142.01</v>
-    <v>8915097260</v>
+    <v>107.8</v>
+    <v>6760777000</v>
     <v>CROCS, INC.</v>
     <v>CROCS, INC.</v>
-    <v>142.69</v>
-    <v>16.613900000000001</v>
-    <v>143.75</v>
-    <v>144.37</v>
-    <v>61751730</v>
+    <v>113.5</v>
+    <v>11.029400000000001</v>
+    <v>115.37</v>
+    <v>109</v>
+    <v>108.6</v>
+    <v>62025480</v>
     <v>CROX</v>
     <v>CROCS, INC. (XNAS:CROX)</v>
-    <v>119</v>
-    <v>1379530</v>
+    <v>3238930</v>
+    <v>1883761</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2451,6 +2441,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2471,6 +2463,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2487,7 +2480,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2498,13 +2491,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2570,13 +2566,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2621,6 +2623,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2628,6 +2633,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2989,10 +2997,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y27" sqref="Y27"/>
+      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3281,7 +3289,7 @@
         <v>7.0311390532544387</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AB4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:AA4" si="0">(F3/E3)-1</f>
         <v>2.2669435720798297</v>
       </c>
       <c r="G4" s="15">
@@ -3694,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:W9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:V9" si="1">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
@@ -4027,7 +4035,7 @@
         <v>18.875</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:W13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:V13" si="2">C12/C3</f>
         <v>1.2626609442060086</v>
       </c>
       <c r="D13" s="15">
@@ -4344,15 +4352,15 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>2.5077735236576246</v>
+        <v>1.9017737064994649</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>16.50457968857318</v>
+        <v>12.516272060633998</v>
       </c>
       <c r="AE16" s="31">
         <f>AD101/V106</f>
-        <v>17.867645104138273</v>
+        <v>13.549954705061809</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -4584,7 +4592,7 @@
         <v>-32.614727854855921</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:W20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:V20" si="3">(F19/E19)-1</f>
         <v>2.5337069169226614</v>
       </c>
       <c r="G20" s="15">
@@ -5214,7 +5222,7 @@
         <v>-12.360107095046853</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:W29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="4">(F28/E28)-1</f>
         <v>2.7954866839500352</v>
       </c>
       <c r="G29" s="15">
@@ -5632,7 +5640,7 @@
         <v>4.0322390335769978</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:W35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:V35" si="5">(D34-C34)/C34</f>
         <v>-0.40921845844610399</v>
       </c>
       <c r="E35" s="22">
@@ -8705,7 +8713,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:W80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:V80" si="6">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -8992,10 +9000,10 @@
       <c r="V83" s="1">
         <v>2770000</v>
       </c>
-      <c r="AC83" s="33" t="s">
+      <c r="AC83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AD83" s="34"/>
+      <c r="AD83" s="62"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9064,10 +9072,10 @@
       <c r="V84" s="1">
         <v>41701000</v>
       </c>
-      <c r="AC84" s="35" t="s">
+      <c r="AC84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AD84" s="36"/>
+      <c r="AD84" s="64"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9361,10 +9369,10 @@
       <c r="V88" s="1">
         <v>-104190000</v>
       </c>
-      <c r="AC88" s="37" t="s">
+      <c r="AC88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AD88" s="38">
+      <c r="AD88" s="34">
         <f>AD85/(AD86+AD87)</f>
         <v>5.247009207064144E-2</v>
       </c>
@@ -9374,7 +9382,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:W89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:V89" si="7">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
@@ -9607,10 +9615,10 @@
       <c r="V91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC91" s="37" t="s">
+      <c r="AC91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AD91" s="38">
+      <c r="AD91" s="34">
         <f>AD89/AD90</f>
         <v>0.24822131416769194</v>
       </c>
@@ -9682,10 +9690,10 @@
       <c r="V92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC92" s="39" t="s">
+      <c r="AC92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AD92" s="40">
+      <c r="AD92" s="36">
         <f>AD88*(1-AD91)</f>
         <v>3.9445896862367033E-2</v>
       </c>
@@ -9757,10 +9765,10 @@
       <c r="V93" s="1">
         <v>-20000</v>
       </c>
-      <c r="AC93" s="35" t="s">
+      <c r="AC93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AD93" s="36"/>
+      <c r="AD93" s="64"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9832,7 +9840,7 @@
       <c r="AC94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AD94" s="41">
+      <c r="AD94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -9906,9 +9914,9 @@
       <c r="AC95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AD95" s="42" cm="1">
+      <c r="AD95" s="38" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.9494</v>
+        <v>1.9446000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -9981,7 +9989,7 @@
       <c r="AC96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AD96" s="41">
+      <c r="AD96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10052,12 +10060,12 @@
       <c r="V97" s="1">
         <v>-11477000</v>
       </c>
-      <c r="AC97" s="39" t="s">
+      <c r="AC97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AD97" s="40">
+      <c r="AD97" s="36">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.12487167</v>
+        <v>0.12466503000000001</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10127,10 +10135,10 @@
       <c r="V98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC98" s="35" t="s">
+      <c r="AC98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AD98" s="36"/>
+      <c r="AD98" s="64"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10274,12 +10282,12 @@
       <c r="V100" s="10">
         <v>1529659000</v>
       </c>
-      <c r="AC100" s="37" t="s">
+      <c r="AC100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AD100" s="38">
+      <c r="AD100" s="34">
         <f>AD99/AD103</f>
-        <v>0.22545179746506405</v>
+        <v>0.27736595102408246</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10352,9 +10360,9 @@
       <c r="AC101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AD101" s="43" cm="1">
+      <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>8915097260</v>
+        <v>6760777000</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10424,12 +10432,12 @@
       <c r="V102" s="10">
         <v>-22040000</v>
       </c>
-      <c r="AC102" s="37" t="s">
+      <c r="AC102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AD102" s="38">
+      <c r="AD102" s="34">
         <f>AD101/AD103</f>
-        <v>0.77454820253493595</v>
+        <v>0.72263404897591754</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10499,12 +10507,12 @@
       <c r="V103" s="1">
         <v>216925000</v>
       </c>
-      <c r="AC103" s="39" t="s">
+      <c r="AC103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AD103" s="44">
+      <c r="AD103" s="40">
         <f>AD99+AD101</f>
-        <v>11510061260</v>
+        <v>9355741000</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10574,10 +10582,10 @@
       <c r="V104" s="11">
         <v>194885000</v>
       </c>
-      <c r="AC104" s="35" t="s">
+      <c r="AC104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AD104" s="36"/>
+      <c r="AD104" s="64"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10605,7 +10613,7 @@
         <v>2.8899467097778575</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:W105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:V105" si="8">(H106/G106)-1</f>
         <v>-1.1022842717729273</v>
       </c>
       <c r="I105" s="15">
@@ -10675,7 +10683,7 @@
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.10561227589627786</v>
+        <v>0.10102814409183253</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10745,33 +10753,33 @@
       <c r="V106" s="1">
         <v>498952000</v>
       </c>
-      <c r="W106" s="45">
+      <c r="W106" s="41">
         <f>V106*(1+$AD$106)</f>
         <v>561209150.60600936</v>
       </c>
-      <c r="X106" s="45">
+      <c r="X106" s="41">
         <f t="shared" ref="X106:AA106" si="9">W106*(1+$AD$106)</f>
         <v>631234488.93664813</v>
       </c>
-      <c r="Y106" s="45">
+      <c r="Y106" s="41">
         <f t="shared" si="9"/>
         <v>709997297.07337511</v>
       </c>
-      <c r="Z106" s="45">
+      <c r="Z106" s="41">
         <f t="shared" si="9"/>
         <v>798587800.07518017</v>
       </c>
-      <c r="AA106" s="45">
+      <c r="AA106" s="41">
         <f t="shared" si="9"/>
         <v>898232256.73915219</v>
       </c>
-      <c r="AB106" s="46" t="s">
+      <c r="AB106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AC106" s="47" t="s">
+      <c r="AC106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AD106" s="48">
+      <c r="AD106" s="44">
         <f>(SUM(W4:AA4)/5)</f>
         <v>0.12477583135453778</v>
       </c>
@@ -10799,151 +10807,151 @@
       <c r="T107" s="13"/>
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
-      <c r="W107" s="46"/>
-      <c r="X107" s="46"/>
-      <c r="Y107" s="46"/>
-      <c r="Z107" s="46"/>
-      <c r="AA107" s="49">
+      <c r="W107" s="42"/>
+      <c r="X107" s="42"/>
+      <c r="Y107" s="42"/>
+      <c r="Z107" s="42"/>
+      <c r="AA107" s="45">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>11421189303.007162</v>
-      </c>
-      <c r="AB107" s="50" t="s">
+        <v>12109832143.811829</v>
+      </c>
+      <c r="AB107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AC107" s="51" t="s">
+      <c r="AC107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AD107" s="52">
+      <c r="AD107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="49">
+      <c r="W108" s="45">
         <f t="shared" ref="W108:Y108" si="10">W107+W106</f>
         <v>561209150.60600936</v>
       </c>
-      <c r="X108" s="49">
+      <c r="X108" s="45">
         <f t="shared" si="10"/>
         <v>631234488.93664813</v>
       </c>
-      <c r="Y108" s="49">
+      <c r="Y108" s="45">
         <f t="shared" si="10"/>
         <v>709997297.07337511</v>
       </c>
-      <c r="Z108" s="49">
+      <c r="Z108" s="45">
         <f>Z107+Z106</f>
         <v>798587800.07518017</v>
       </c>
-      <c r="AA108" s="49">
+      <c r="AA108" s="45">
         <f>AA107+AA106</f>
-        <v>12319421559.746315</v>
-      </c>
-      <c r="AB108" s="50" t="s">
+        <v>13008064400.550982</v>
+      </c>
+      <c r="AB108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AC108" s="53" t="s">
+      <c r="AC108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AD108" s="54">
+      <c r="AD108" s="50">
         <f>AD105</f>
-        <v>0.10561227589627786</v>
+        <v>0.10102814409183253</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="55" t="s">
+      <c r="W109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="X109" s="56"/>
+      <c r="X109" s="60"/>
     </row>
     <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="57" t="s">
+      <c r="W110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="X110" s="43">
+      <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>9541007850.1212406</v>
+        <v>10145114827.14468</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="57" t="s">
+      <c r="W111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="X111" s="43">
+      <c r="X111" s="39">
         <f>V40</f>
         <v>191629000</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="57" t="s">
+      <c r="W112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="X112" s="43">
+      <c r="X112" s="39">
         <f>AD99</f>
         <v>2594964000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="57" t="s">
+      <c r="W113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="X113" s="43">
+      <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>7137672850.1212406</v>
+        <v>7741779827.14468</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="57" t="s">
+      <c r="W114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="X114" s="58">
+      <c r="X114" s="52">
         <f>V34*(1+(5*AB16))</f>
         <v>52932124.790336579</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="59" t="s">
+      <c r="W115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="X115" s="60">
+      <c r="X115" s="54">
         <f>X113/X114</f>
-        <v>134.84576480527591</v>
+        <v>146.25862569866152</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="57" t="s">
+      <c r="W116" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="X116" s="61" cm="1">
+      <c r="X116" s="55" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>144.37</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="62" t="s">
+      <c r="W117" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="X117" s="63">
+      <c r="X117" s="57">
         <f>X115/X116-1</f>
-        <v>-6.5971013331884043E-2</v>
+        <v>0.34182225411616063</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="62" t="s">
+      <c r="W118" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="X118" s="64" t="str">
+      <c r="X118" s="58" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="W109:X109"/>
     <mergeCell ref="AC83:AD83"/>
     <mergeCell ref="AC84:AD84"/>
     <mergeCell ref="AC93:AD93"/>
     <mergeCell ref="AC98:AD98"/>
     <mergeCell ref="AC104:AD104"/>
-    <mergeCell ref="W109:X109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/CROX" display="ROIC.AI | CROX" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Crocs.xlsx
+++ b/Consumer/Crocs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44037F47-DB7D-814F-8FAD-40462F14C5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79D84F-76FF-EF43-9200-71FF4E92329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +547,44 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -888,12 +911,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -977,7 +1009,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1027,6 +1058,25 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,7 +1439,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1433,7 +1483,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$V$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$V$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2379,11 +2429,9 @@
     <v>Powered by Refinitiv</v>
     <v>151.32</v>
     <v>46.08</v>
-    <v>1.9446000000000001</v>
-    <v>-6.37</v>
-    <v>-5.5213999999999999E-2</v>
-    <v>-0.4</v>
-    <v>-3.6700000000000001E-3</v>
+    <v>1.9065000000000001</v>
+    <v>-0.23</v>
+    <v>-2.1479999999999997E-3</v>
     <v>USD</v>
     <v>Crocs, Inc. is engaged in the design, development, marketing, distribution, and sale of casual lifestyle footwear and accessories for women, men and children. The Company's Crocs Brands collection contain Croslite material, a proprietary, molded footwear technology. The Company’s segments includes North America for the Crocs Brand, operating throughout the United States of America (US) and Canada; Asia Pacific for the Crocs Brand, operating throughout Asia, Australia, and New Zealand; Europe, Middle East, Africa, and Latin America (EMEALA) for the Crocs Brand; and (iv) the HEYDUDE Brand. The Company sells its products in approximately 85 countries, through two distribution channels: wholesale and direct-to-consumer. Its wholesale channel includes domestic and international multi-brand retailers, mono-branded partner stores, e-tailors and distributors. Its direct-to-consumer channel includes Company-operated retail stores, Company-operated e-commerce sites and third-party marketplaces.</v>
     <v>6680</v>
@@ -2391,25 +2439,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>13601 Via Varra, BROOMFIELD, CO, 80020 US</v>
-    <v>113.5</v>
+    <v>107.785</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45065.999785867971</v>
+    <v>45100.779110532028</v>
     <v>0</v>
-    <v>107.8</v>
-    <v>6760777000</v>
+    <v>104.6</v>
+    <v>6626182028</v>
     <v>CROCS, INC.</v>
     <v>CROCS, INC.</v>
-    <v>113.5</v>
-    <v>11.029400000000001</v>
-    <v>115.37</v>
-    <v>109</v>
-    <v>108.6</v>
+    <v>105.45</v>
+    <v>10.8331</v>
+    <v>107.06</v>
+    <v>106.83</v>
     <v>62025480</v>
     <v>CROX</v>
     <v>CROCS, INC. (XNAS:CROX)</v>
-    <v>3238930</v>
-    <v>1883761</v>
+    <v>668400</v>
+    <v>1743844</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2441,8 +2488,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2463,7 +2508,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2480,7 +2524,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2491,16 +2535,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2566,19 +2607,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2623,9 +2658,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2633,9 +2665,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2997,10 +3026,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
+      <selection pane="bottomRight" activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3389,7 +3418,7 @@
         <v>0.89400835480428575</v>
       </c>
       <c r="AE4" s="17">
-        <f>(V105+U105+T105)/3</f>
+        <f>(V106+U106+T106)/3</f>
         <v>1.4873128382819172</v>
       </c>
     </row>
@@ -3621,7 +3650,7 @@
         <v>0.15190000000000001</v>
       </c>
       <c r="AE7" s="20">
-        <f>V106/V3</f>
+        <f>V107/V3</f>
         <v>0.1403527722339194</v>
       </c>
     </row>
@@ -4352,18 +4381,18 @@
       </c>
       <c r="AC16" s="30">
         <f>AD101/V3</f>
-        <v>1.9017737064994649</v>
+        <v>1.8639127951313437</v>
       </c>
       <c r="AD16" s="30">
         <f>AD101/V28</f>
-        <v>12.516272060633998</v>
+        <v>12.267095481145367</v>
       </c>
       <c r="AE16" s="31">
-        <f>AD101/V106</f>
-        <v>13.549954705061809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+        <f>AD101/V107</f>
+        <v>13.28019935384566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4431,7 +4460,7 @@
         <v>136158000</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4501,8 +4530,17 @@
       <c r="AB18" s="18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="AC18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4568,13 +4606,40 @@
       </c>
       <c r="V19" s="10">
         <v>893895000</v>
+      </c>
+      <c r="W19" s="70">
+        <v>1125000000</v>
+      </c>
+      <c r="X19" s="70">
+        <v>1214000000</v>
+      </c>
+      <c r="Y19" s="70">
+        <v>1353000000</v>
+      </c>
+      <c r="Z19" s="70">
+        <v>1606000000</v>
+      </c>
+      <c r="AA19" s="70">
+        <v>1840000000</v>
       </c>
       <c r="AB19" s="32">
         <f>V40-V56-V61</f>
         <v>-2403335000</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC19" s="66">
+        <f>AD101/W3</f>
+        <v>1.6573741940970486</v>
+      </c>
+      <c r="AD19" s="66">
+        <f>AD101/W28</f>
+        <v>9.1610424830637349</v>
+      </c>
+      <c r="AE19" s="67">
+        <f>AD101/W106</f>
+        <v>10.366367377972466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -4659,8 +4724,28 @@
         <f t="shared" si="3"/>
         <v>0.24589531020025879</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W20" s="16">
+        <f t="shared" ref="W20" si="4">(W19/V19)-1</f>
+        <v>0.25853707650227387</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" ref="X20" si="5">(X19/W19)-1</f>
+        <v>7.9111111111111132E-2</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" ref="Y20" si="6">(Y19/X19)-1</f>
+        <v>0.11449752883031294</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" ref="Z20" si="7">(Z19/Y19)-1</f>
+        <v>0.18699186991869921</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" ref="AA20" si="8">(AA19/Z19)-1</f>
+        <v>0.14570361145703603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4727,8 +4812,34 @@
       <c r="V21" s="2">
         <v>0.25140000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W21" s="71">
+        <f>W19/W3</f>
+        <v>0.28139069534767386</v>
+      </c>
+      <c r="X21" s="71">
+        <f t="shared" ref="X21:AA21" si="9">X19/X3</f>
+        <v>0.27991699331335024</v>
+      </c>
+      <c r="Y21" s="71">
+        <f t="shared" si="9"/>
+        <v>0.29828042328042326</v>
+      </c>
+      <c r="Z21" s="71">
+        <f t="shared" si="9"/>
+        <v>0.28470129409679135</v>
+      </c>
+      <c r="AA21" s="71">
+        <f t="shared" si="9"/>
+        <v>0.28994642294358652</v>
+      </c>
+      <c r="AD21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE21" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4795,8 +4906,16 @@
       <c r="V22" s="10">
         <v>850756000</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="AD22" s="68">
+        <f>(-1*V98)/AD101</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="69">
+        <f>V107/AD101</f>
+        <v>7.5300074445826856E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4864,7 +4983,7 @@
         <v>0.23930000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4932,7 +5051,7 @@
         <v>-132248000</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5000,7 +5119,7 @@
         <v>718508000</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5068,7 +5187,7 @@
         <v>0.2021</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5136,7 +5255,7 @@
         <v>178349000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5203,8 +5322,23 @@
       <c r="V28" s="11">
         <v>540159000</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="72">
+        <v>723300000</v>
+      </c>
+      <c r="X28" s="72">
+        <v>797400000</v>
+      </c>
+      <c r="Y28" s="72">
+        <v>888700000</v>
+      </c>
+      <c r="Z28" s="72">
+        <v>1096000000</v>
+      </c>
+      <c r="AA28" s="72">
+        <v>1210000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -5222,75 +5356,95 @@
         <v>-12.360107095046853</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:V29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:V29" si="10">(F28/E28)-1</f>
         <v>2.7954866839500352</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.6115466414145336</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-2.1001497967044722</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.77264475134539323</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-2.6095346737012215</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.6653574698048017</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.164512182147037</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.92066573780102479</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.4727447216890595</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>15.889159561510354</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.80174527621520264</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.6207105614162725</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>3.9264504786091035</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.3692329044154095</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.6181494096086095</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.319541265929598</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.25566561112535036</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W29" s="16">
+        <f t="shared" ref="W29" si="11">(W28/V28)-1</f>
+        <v>0.33905016856147907</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" ref="X29" si="12">(X28/W28)-1</f>
+        <v>0.10244711737868095</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" ref="Y29" si="13">(Y28/X28)-1</f>
+        <v>0.11449711562578391</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" ref="Z29" si="14">(Z28/Y28)-1</f>
+        <v>0.23326206818949036</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" ref="AA29" si="15">(AA28/Z28)-1</f>
+        <v>0.10401459854014594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5357,8 +5511,28 @@
       <c r="V30" s="2">
         <v>0.15190000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W30" s="73">
+        <f>W28/W3</f>
+        <v>0.18091545772886444</v>
+      </c>
+      <c r="X30" s="73">
+        <f t="shared" ref="X30:AA30" si="16">X28/X3</f>
+        <v>0.18385981092921375</v>
+      </c>
+      <c r="Y30" s="73">
+        <f t="shared" si="16"/>
+        <v>0.19592151675485009</v>
+      </c>
+      <c r="Z30" s="73">
+        <f t="shared" si="16"/>
+        <v>0.19429179223541926</v>
+      </c>
+      <c r="AA30" s="73">
+        <f t="shared" si="16"/>
+        <v>0.19067128900094549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5425,8 +5599,23 @@
       <c r="V31" s="12">
         <v>8.82</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="W31" s="74">
+        <v>11.66</v>
+      </c>
+      <c r="X31" s="74">
+        <v>12.86</v>
+      </c>
+      <c r="Y31" s="74">
+        <v>14.33</v>
+      </c>
+      <c r="Z31" s="74">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="AA31" s="74">
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5640,79 +5829,79 @@
         <v>4.0322390335769978</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:V35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:V35" si="17">(D34-C34)/C34</f>
         <v>-0.40921845844610399</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.36231085255296119</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.19407971403038426</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.0197646236810861E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-1.6952847360094319E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.833140866576438E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.9175011165521344E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.8386018350826639E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.7743774012782703E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-4.7988860746026409E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-7.3983570341587604E-3</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-0.12531378454310071</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.0966945218198699E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.1058348445023908E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-5.3062071828939177E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.8961576124289329E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-4.4962450014629868E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-7.0407329598506069E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>-2.6868388838318841E-2</v>
       </c>
     </row>
@@ -8713,87 +8902,87 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:V80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:V80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.8676999598926546E-2</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.0022097138768766E-3</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.5422863154571427E-3</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.0078331631503934E-2</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.9532146091156053E-3</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.0434618597706771E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.0302302339015065E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.0360204309096155E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.5484864383745E-3</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2042767677046144E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1711426929943531E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1804890649092212E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.6478661857616615E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.8053817386008655E-3</v>
       </c>
     </row>
@@ -9000,10 +9189,10 @@
       <c r="V83" s="1">
         <v>2770000</v>
       </c>
-      <c r="AC83" s="61" t="s">
+      <c r="AC83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AD83" s="62"/>
+      <c r="AD83" s="61"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9072,10 +9261,10 @@
       <c r="V84" s="1">
         <v>41701000</v>
       </c>
-      <c r="AC84" s="63" t="s">
+      <c r="AC84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AD84" s="64"/>
+      <c r="AD84" s="63"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9382,87 +9571,87 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:V89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:V89" si="19">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.27553648068669528</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.1147189349112426</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.10619721682430627</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.1876818294580642E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8.7217796660175845E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>9.1766919950276402E-2</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.1054544440951612E-2</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.9581104097151432E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.7692993227115915E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.5397458027723649E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.3893416507361572E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.3345595936649522E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.1762009113998332E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2769801008035528E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2815665262678638E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.1008036169655533E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.9722255855510311E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3.0327912025749828E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.4170317833022682E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2.9308140540677388E-2</v>
       </c>
       <c r="AC89" s="23" t="s">
@@ -9765,10 +9954,10 @@
       <c r="V93" s="1">
         <v>-20000</v>
       </c>
-      <c r="AC93" s="63" t="s">
+      <c r="AC93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="AD93" s="64"/>
+      <c r="AD93" s="63"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9916,7 +10105,7 @@
       </c>
       <c r="AD95" s="38" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.9446000000000001</v>
+        <v>1.9065000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10065,7 +10254,7 @@
       </c>
       <c r="AD97" s="36">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.12466503000000001</v>
+        <v>0.12302482500000002</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10132,13 +10321,13 @@
       <c r="U98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC98" s="63" t="s">
+      <c r="V98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AD98" s="64"/>
+      <c r="AD98" s="63"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10287,7 +10476,7 @@
       </c>
       <c r="AD100" s="34">
         <f>AD99/AD103</f>
-        <v>0.27736595102408246</v>
+        <v>0.28141447843038109</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10362,7 +10551,7 @@
       </c>
       <c r="AD101" s="39" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6760777000</v>
+        <v>6626182028</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10437,7 +10626,7 @@
       </c>
       <c r="AD102" s="34">
         <f>AD101/AD103</f>
-        <v>0.72263404897591754</v>
+        <v>0.71858552156961897</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10512,7 +10701,7 @@
       </c>
       <c r="AD103" s="40">
         <f>AD99+AD101</f>
-        <v>9355741000</v>
+        <v>9221146028</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10582,202 +10771,231 @@
       <c r="V104" s="11">
         <v>194885000</v>
       </c>
-      <c r="AC104" s="63" t="s">
+      <c r="AC104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AD104" s="64"/>
+      <c r="AD104" s="63"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>1.8421052631578894E-2</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.32945736434108519</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>15.230320699708454</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>2.8899467097778575</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:V105" si="8">(H106/G106)-1</f>
-        <v>-1.1022842717729273</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.1289691497366441</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.73607769497095243</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.7025131403268603</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.32973316391359597</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.78323459715639809</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.6923339710303358</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.87200955196062724</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.9977246871444825</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.8489179954441912</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.20007751300691745</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.47758433398901967</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.2124498894758533</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.2735414841529957</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.4052858783097819E-2</v>
-      </c>
-      <c r="W105" s="15"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="15"/>
-      <c r="AB105" s="15"/>
+        <v>159</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:U105" si="20">(C22*(1-$AD$91))+C77+C88+C81</f>
+        <v>-815879.08694127295</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="20"/>
+        <v>-2062044.315442556</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="20"/>
+        <v>-929167.58059757203</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="20"/>
+        <v>-7545909.4206327498</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="20"/>
+        <v>-9662837.2057096064</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="20"/>
+        <v>-114950394.52587864</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="20"/>
+        <v>-16519040.255640857</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="20"/>
+        <v>58444385.806421086</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="20"/>
+        <v>106662549.50953922</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="20"/>
+        <v>39572497.622851789</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="20"/>
+        <v>33575476.182589471</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="20"/>
+        <v>-63851906.069243491</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="20"/>
+        <v>-33456641.674135849</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="20"/>
+        <v>30190553.967387974</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="20"/>
+        <v>77947835.297588885</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="20"/>
+        <v>76550957.6010288</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="20"/>
+        <v>-26944423.846359387</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="20"/>
+        <v>278947859.32515717</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="20"/>
+        <v>445046956.25935972</v>
+      </c>
+      <c r="V105" s="1">
+        <f>(V22*(1-$AD$91))+V77+V88+V81</f>
+        <v>571830227.64395118</v>
+      </c>
+      <c r="W105" s="41">
+        <f>V105*(1+$AD$106)</f>
+        <v>643180819.69187975</v>
+      </c>
+      <c r="X105" s="41">
+        <f t="shared" ref="X105:AA105" si="21">W105*(1+$AD$106)</f>
+        <v>723434241.18022704</v>
+      </c>
+      <c r="Y105" s="41">
+        <f t="shared" si="21"/>
+        <v>813701350.05382907</v>
+      </c>
+      <c r="Z105" s="41">
+        <f t="shared" si="21"/>
+        <v>915231612.48110533</v>
+      </c>
+      <c r="AA105" s="41">
+        <f t="shared" si="21"/>
+        <v>1029430397.8103894</v>
+      </c>
+      <c r="AB105" s="42" t="s">
+        <v>160</v>
+      </c>
       <c r="AC105" s="25" t="s">
         <v>108</v>
       </c>
       <c r="AD105" s="26">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>0.10102814409183253</v>
+        <v>9.9504504530377735E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-760000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-774000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-1029000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-16701000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-64966000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>6645000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>34082000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>59169000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>100736000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>67520000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>14636000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>-68677000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-8790000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>17560000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>85147000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>102183000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>53382000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>224869000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>511249000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>498952000</v>
-      </c>
-      <c r="W106" s="41">
-        <f>V106*(1+$AD$106)</f>
-        <v>561209150.60600936</v>
-      </c>
-      <c r="X106" s="41">
-        <f t="shared" ref="X106:AA106" si="9">W106*(1+$AD$106)</f>
-        <v>631234488.93664813</v>
-      </c>
-      <c r="Y106" s="41">
-        <f t="shared" si="9"/>
-        <v>709997297.07337511</v>
-      </c>
-      <c r="Z106" s="41">
-        <f t="shared" si="9"/>
-        <v>798587800.07518017</v>
-      </c>
-      <c r="AA106" s="41">
-        <f t="shared" si="9"/>
-        <v>898232256.73915219</v>
+      <c r="A106" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>1.8421052631578894E-2</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>0.32945736434108519</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>15.230320699708454</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>2.8899467097778575</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-1.1022842717729273</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>4.1289691497366441</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.73607769497095243</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>0.7025131403268603</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>-0.32973316391359597</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>-0.78323459715639809</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-5.6923339710303358</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-0.87200955196062724</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-2.9977246871444825</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>3.8489179954441912</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>0.20007751300691745</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>-0.47758433398901967</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>3.2124498894758533</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>1.2735414841529957</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>-2.4052858783097819E-2</v>
+      </c>
+      <c r="W106" s="64">
+        <v>639200000</v>
+      </c>
+      <c r="X106" s="64">
+        <v>766900000</v>
+      </c>
+      <c r="Y106" s="64">
+        <v>883900000</v>
+      </c>
+      <c r="Z106" s="64">
+        <v>906800000</v>
+      </c>
+      <c r="AA106" s="64">
+        <v>1145000000</v>
       </c>
       <c r="AB106" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC106" s="43" t="s">
         <v>146</v>
-      </c>
-      <c r="AC106" s="43" t="s">
-        <v>147</v>
       </c>
       <c r="AD106" s="44">
         <f>(SUM(W4:AA4)/5)</f>
@@ -10785,96 +11003,140 @@
       </c>
     </row>
     <row r="107" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
+      <c r="A107" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-760000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-774000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-1029000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-16701000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-64966000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>6645000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>34082000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>59169000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>100736000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>67520000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>14636000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>-68677000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-8790000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>17560000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>85147000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>102183000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>53382000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>224869000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>511249000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>498952000</v>
+      </c>
       <c r="W107" s="42"/>
       <c r="X107" s="42"/>
       <c r="Y107" s="42"/>
       <c r="Z107" s="42"/>
-      <c r="AA107" s="45">
+      <c r="AA107" s="65">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>12109832143.811829</v>
-      </c>
-      <c r="AB107" s="46" t="s">
+        <v>15752403259.342226</v>
+      </c>
+      <c r="AB107" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AC107" s="47" t="s">
+      <c r="AD107" s="47">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="W108" s="65">
+        <f t="shared" ref="W108:Y108" si="22">W107+W106</f>
+        <v>639200000</v>
+      </c>
+      <c r="X108" s="65">
+        <f t="shared" si="22"/>
+        <v>766900000</v>
+      </c>
+      <c r="Y108" s="65">
+        <f t="shared" si="22"/>
+        <v>883900000</v>
+      </c>
+      <c r="Z108" s="65">
+        <f>Z107+Z106</f>
+        <v>906800000</v>
+      </c>
+      <c r="AA108" s="65">
+        <f>AA107+AA106</f>
+        <v>16897403259.342226</v>
+      </c>
+      <c r="AB108" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC108" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AD107" s="48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="45">
-        <f t="shared" ref="W108:Y108" si="10">W107+W106</f>
-        <v>561209150.60600936</v>
-      </c>
-      <c r="X108" s="45">
-        <f t="shared" si="10"/>
-        <v>631234488.93664813</v>
-      </c>
-      <c r="Y108" s="45">
-        <f t="shared" si="10"/>
-        <v>709997297.07337511</v>
-      </c>
-      <c r="Z108" s="45">
-        <f>Z107+Z106</f>
-        <v>798587800.07518017</v>
-      </c>
-      <c r="AA108" s="45">
-        <f>AA107+AA106</f>
-        <v>13008064400.550982</v>
-      </c>
-      <c r="AB108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC108" s="49" t="s">
+      <c r="AD108" s="49">
+        <f>AD105</f>
+        <v>9.9504504530377735E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="W109" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="AD108" s="50">
-        <f>AD105</f>
-        <v>0.10102814409183253</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="59" t="s">
+      <c r="X109" s="59"/>
+    </row>
+    <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
+      <c r="W110" s="50" t="s">
         <v>151</v>
-      </c>
-      <c r="X109" s="60"/>
-    </row>
-    <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="51" t="s">
-        <v>152</v>
       </c>
       <c r="X110" s="39">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>10145114827.14468</v>
+        <v>13016805494.235794</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="51" t="s">
-        <v>153</v>
+      <c r="W111" s="50" t="s">
+        <v>152</v>
       </c>
       <c r="X111" s="39">
         <f>V40</f>
@@ -10882,7 +11144,7 @@
       </c>
     </row>
     <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="51" t="s">
+      <c r="W112" s="50" t="s">
         <v>140</v>
       </c>
       <c r="X112" s="39">
@@ -10891,55 +11153,55 @@
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="51" t="s">
-        <v>154</v>
+      <c r="W113" s="50" t="s">
+        <v>153</v>
       </c>
       <c r="X113" s="39">
         <f>X110+X111-X112</f>
-        <v>7741779827.14468</v>
+        <v>10613470494.235794</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="X114" s="52">
+      <c r="W114" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="X114" s="51">
         <f>V34*(1+(5*AB16))</f>
         <v>52932124.790336579</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="53" t="s">
+      <c r="W115" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="X115" s="53">
+        <f>X113/X114</f>
+        <v>200.51094748747769</v>
+      </c>
+    </row>
+    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W116" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="X115" s="54">
-        <f>X113/X114</f>
-        <v>146.25862569866152</v>
-      </c>
-    </row>
-    <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="51" t="s">
+      <c r="X116" s="54" cm="1">
+        <f t="array" ref="X116">_FV(A1,"Price")</f>
+        <v>106.83</v>
+      </c>
+    </row>
+    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W117" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="X116" s="55" cm="1">
-        <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="56" t="s">
+      <c r="X117" s="56">
+        <f>X115/X116-1</f>
+        <v>0.8769161049094607</v>
+      </c>
+    </row>
+    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
+      <c r="W118" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="X117" s="57">
-        <f>X115/X116-1</f>
-        <v>0.34182225411616063</v>
-      </c>
-    </row>
-    <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="X118" s="58" t="str">
+      <c r="X118" s="57" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
@@ -10998,8 +11260,9 @@
     <hyperlink ref="V36" r:id="rId42" tooltip="https://www.sec.gov/Archives/edgar/data/1334036/000133403623000015/0001334036-23-000015-index.htm" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="V74" r:id="rId43" tooltip="https://www.sec.gov/Archives/edgar/data/1334036/000133403623000015/0001334036-23-000015-index.htm" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="W1" r:id="rId44" display="https://finbox.com/NASDAQGS:CROX/explorer/revenue_proj" xr:uid="{7A0E1F84-DCCE-C648-9127-54934DDB5176}"/>
+    <hyperlink ref="AB106" r:id="rId45" xr:uid="{F47148CF-5457-3248-848C-0A782D18707B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId45"/>
+  <drawing r:id="rId46"/>
 </worksheet>
 </file>
--- a/Consumer/Crocs.xlsx
+++ b/Consumer/Crocs.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79D84F-76FF-EF43-9200-71FF4E92329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88031AD-C093-CD4D-BE25-F7B1BC302A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -571,6 +574,9 @@
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
@@ -583,8 +589,8 @@
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -747,7 +753,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -853,62 +859,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -925,7 +878,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -967,116 +920,93 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,7 +1057,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>CROX</a:t>
+              <a:t>Crocs</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1174,10 +1104,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0635761589403975E-2"/>
-          <c:y val="0.10774724679403251"/>
-          <c:w val="0.88168211920529782"/>
-          <c:h val="0.7587979694721102"/>
+          <c:x val="9.7125827814569535E-2"/>
+          <c:y val="0.16464627940304141"/>
+          <c:w val="0.83135099337748342"/>
+          <c:h val="0.62603351574862642"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1689,7 +1619,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.352195755331908"/>
-          <c:y val="0.93312891681557908"/>
+          <c:y val="0.90278276411438585"/>
           <c:w val="0.30355550920373364"/>
           <c:h val="4.6468701085824411E-2"/>
         </c:manualLayout>
@@ -2273,13 +2203,13 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>17463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2305,6 +2235,62 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Top 12"/>
+      <sheetName val="Still Researching"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0119999999999996E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2428,10 +2414,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>151.32</v>
-    <v>46.08</v>
-    <v>1.9065000000000001</v>
-    <v>-0.23</v>
-    <v>-2.1479999999999997E-3</v>
+    <v>65.170100000000005</v>
+    <v>1.8893</v>
+    <v>0.05</v>
+    <v>4.8570000000000004E-4</v>
+    <v>1.5</v>
+    <v>1.4563E-2</v>
     <v>USD</v>
     <v>Crocs, Inc. is engaged in the design, development, marketing, distribution, and sale of casual lifestyle footwear and accessories for women, men and children. The Company's Crocs Brands collection contain Croslite material, a proprietary, molded footwear technology. The Company’s segments includes North America for the Crocs Brand, operating throughout the United States of America (US) and Canada; Asia Pacific for the Crocs Brand, operating throughout Asia, Australia, and New Zealand; Europe, Middle East, Africa, and Latin America (EMEALA) for the Crocs Brand; and (iv) the HEYDUDE Brand. The Company sells its products in approximately 85 countries, through two distribution channels: wholesale and direct-to-consumer. Its wholesale channel includes domestic and international multi-brand retailers, mono-branded partner stores, e-tailors and distributors. Its direct-to-consumer channel includes Company-operated retail stores, Company-operated e-commerce sites and third-party marketplaces.</v>
     <v>6680</v>
@@ -2439,24 +2427,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>13601 Via Varra, BROOMFIELD, CO, 80020 US</v>
-    <v>107.785</v>
+    <v>106.19</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45100.779110532028</v>
+    <v>45148.986595983595</v>
     <v>0</v>
-    <v>104.6</v>
-    <v>6626182028</v>
+    <v>102.11</v>
+    <v>6349358780</v>
     <v>CROCS, INC.</v>
     <v>CROCS, INC.</v>
-    <v>105.45</v>
-    <v>10.8331</v>
-    <v>107.06</v>
-    <v>106.83</v>
-    <v>62025480</v>
+    <v>103.38</v>
+    <v>9.6264000000000003</v>
+    <v>102.95</v>
+    <v>103</v>
+    <v>104.5</v>
+    <v>61644260</v>
     <v>CROX</v>
     <v>CROCS, INC. (XNAS:CROX)</v>
-    <v>668400</v>
-    <v>1743844</v>
+    <v>1379782</v>
+    <v>2144857</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2488,6 +2477,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2508,6 +2499,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2524,7 +2516,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2535,13 +2527,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2607,13 +2602,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2658,6 +2659,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2665,6 +2669,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3026,10 +3033,10 @@
   <dimension ref="A1:AE118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD33" sqref="AD33"/>
+      <selection pane="bottomRight" activeCell="U110" sqref="U110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3106,19 +3113,19 @@
       <c r="V1" s="8">
         <v>2022</v>
       </c>
-      <c r="W1" s="27">
+      <c r="W1" s="23">
         <v>2023</v>
       </c>
-      <c r="X1" s="27">
+      <c r="X1" s="23">
         <v>2024</v>
       </c>
-      <c r="Y1" s="27">
+      <c r="Y1" s="23">
         <v>2025</v>
       </c>
-      <c r="Z1" s="27">
+      <c r="Z1" s="23">
         <v>2026</v>
       </c>
-      <c r="AA1" s="27">
+      <c r="AA1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3272,19 +3279,19 @@
       <c r="V3" s="1">
         <v>3554985000</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="24">
         <v>3998000000</v>
       </c>
-      <c r="X3" s="28">
+      <c r="X3" s="24">
         <v>4337000000</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="24">
         <v>4536000000</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="24">
         <v>5641000000</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="24">
         <v>6346000000</v>
       </c>
       <c r="AB3" s="18" t="s">
@@ -3305,83 +3312,83 @@
         <v>94</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="62">
         <f>(C3/B3)-1</f>
         <v>47.541666666666664</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="62">
         <f>(D3/C3)-1</f>
         <v>10.605150214592275</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="62">
         <f>(E3/D3)-1</f>
         <v>7.0311390532544387</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="62">
         <f t="shared" ref="F4:AA4" si="0">(F3/E3)-1</f>
         <v>2.2669435720798297</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="62">
         <f t="shared" si="0"/>
         <v>1.3887316479105118</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="62">
         <f t="shared" si="0"/>
         <v>-0.14841682893727504</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="62">
         <f t="shared" si="0"/>
         <v>-0.10507643547781353</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="62">
         <f t="shared" si="0"/>
         <v>0.22287914991010682</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="62">
         <f t="shared" si="0"/>
         <v>0.26745515673772791</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="62">
         <f t="shared" si="0"/>
         <v>0.12228757432038861</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="62">
         <f t="shared" si="0"/>
         <v>6.1763498830678554E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="62">
         <f t="shared" si="0"/>
         <v>4.6475165174229005E-3</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="62">
         <f t="shared" si="0"/>
         <v>-8.9793802989927562E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="62">
         <f t="shared" si="0"/>
         <v>-4.9840000733521017E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="62">
         <f t="shared" si="0"/>
         <v>-1.2313357580483131E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="62">
         <f t="shared" si="0"/>
         <v>6.3205841059175594E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="62">
         <f t="shared" si="0"/>
         <v>0.1308466695153947</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="62">
         <f t="shared" si="0"/>
         <v>0.12624645191383332</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="62">
         <f t="shared" si="0"/>
         <v>0.6691903249104767</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="62">
         <f t="shared" si="0"/>
         <v>0.53668211856406289</v>
       </c>
@@ -4375,21 +4382,21 @@
       <c r="V16" s="1">
         <v>2704229000</v>
       </c>
-      <c r="AB16" s="29">
+      <c r="AB16" s="25">
         <f>(V35+U35+T35+S35+R35)/5</f>
         <v>-2.9267732831220923E-2</v>
       </c>
-      <c r="AC16" s="30">
+      <c r="AC16" s="32">
         <f>AD101/V3</f>
-        <v>1.8639127951313437</v>
-      </c>
-      <c r="AD16" s="30">
+        <v>1.7860437610847866</v>
+      </c>
+      <c r="AD16" s="32">
         <f>AD101/V28</f>
-        <v>12.267095481145367</v>
-      </c>
-      <c r="AE16" s="31">
+        <v>11.75461073498729</v>
+      </c>
+      <c r="AE16" s="33">
         <f>AD101/V107</f>
-        <v>13.28019935384566</v>
+        <v>12.725389977392615</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -4607,36 +4614,36 @@
       <c r="V19" s="10">
         <v>893895000</v>
       </c>
-      <c r="W19" s="70">
+      <c r="W19" s="36">
         <v>1125000000</v>
       </c>
-      <c r="X19" s="70">
+      <c r="X19" s="36">
         <v>1214000000</v>
       </c>
-      <c r="Y19" s="70">
+      <c r="Y19" s="36">
         <v>1353000000</v>
       </c>
-      <c r="Z19" s="70">
+      <c r="Z19" s="36">
         <v>1606000000</v>
       </c>
-      <c r="AA19" s="70">
+      <c r="AA19" s="36">
         <v>1840000000</v>
       </c>
-      <c r="AB19" s="32">
+      <c r="AB19" s="26">
         <f>V40-V56-V61</f>
         <v>-2403335000</v>
       </c>
-      <c r="AC19" s="66">
+      <c r="AC19" s="32">
         <f>AD101/W3</f>
-        <v>1.6573741940970486</v>
-      </c>
-      <c r="AD19" s="66">
+        <v>1.5881337618809406</v>
+      </c>
+      <c r="AD19" s="32">
         <f>AD101/W28</f>
-        <v>9.1610424830637349</v>
-      </c>
-      <c r="AE19" s="67">
+        <v>8.7783198949260335</v>
+      </c>
+      <c r="AE19" s="33">
         <f>AD101/W106</f>
-        <v>10.366367377972466</v>
+        <v>9.3869881431105853</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4812,23 +4819,23 @@
       <c r="V21" s="2">
         <v>0.25140000000000001</v>
       </c>
-      <c r="W21" s="71">
+      <c r="W21" s="37">
         <f>W19/W3</f>
         <v>0.28139069534767386</v>
       </c>
-      <c r="X21" s="71">
+      <c r="X21" s="37">
         <f t="shared" ref="X21:AA21" si="9">X19/X3</f>
         <v>0.27991699331335024</v>
       </c>
-      <c r="Y21" s="71">
+      <c r="Y21" s="37">
         <f t="shared" si="9"/>
         <v>0.29828042328042326</v>
       </c>
-      <c r="Z21" s="71">
+      <c r="Z21" s="37">
         <f t="shared" si="9"/>
         <v>0.28470129409679135</v>
       </c>
-      <c r="AA21" s="71">
+      <c r="AA21" s="37">
         <f t="shared" si="9"/>
         <v>0.28994642294358652</v>
       </c>
@@ -4906,13 +4913,13 @@
       <c r="V22" s="10">
         <v>850756000</v>
       </c>
-      <c r="AD22" s="68">
+      <c r="AD22" s="34">
         <f>(-1*V98)/AD101</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="69">
+      <c r="AE22" s="35">
         <f>V107/AD101</f>
-        <v>7.5300074445826856E-2</v>
+        <v>7.8583053389841673E-2</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -5322,19 +5329,19 @@
       <c r="V28" s="11">
         <v>540159000</v>
       </c>
-      <c r="W28" s="72">
+      <c r="W28" s="38">
         <v>723300000</v>
       </c>
-      <c r="X28" s="72">
+      <c r="X28" s="38">
         <v>797400000</v>
       </c>
-      <c r="Y28" s="72">
+      <c r="Y28" s="38">
         <v>888700000</v>
       </c>
-      <c r="Z28" s="72">
+      <c r="Z28" s="38">
         <v>1096000000</v>
       </c>
-      <c r="AA28" s="72">
+      <c r="AA28" s="38">
         <v>1210000000</v>
       </c>
     </row>
@@ -5511,23 +5518,23 @@
       <c r="V30" s="2">
         <v>0.15190000000000001</v>
       </c>
-      <c r="W30" s="73">
+      <c r="W30" s="39">
         <f>W28/W3</f>
         <v>0.18091545772886444</v>
       </c>
-      <c r="X30" s="73">
+      <c r="X30" s="39">
         <f t="shared" ref="X30:AA30" si="16">X28/X3</f>
         <v>0.18385981092921375</v>
       </c>
-      <c r="Y30" s="73">
+      <c r="Y30" s="39">
         <f t="shared" si="16"/>
         <v>0.19592151675485009</v>
       </c>
-      <c r="Z30" s="73">
+      <c r="Z30" s="39">
         <f t="shared" si="16"/>
         <v>0.19429179223541926</v>
       </c>
-      <c r="AA30" s="73">
+      <c r="AA30" s="39">
         <f t="shared" si="16"/>
         <v>0.19067128900094549</v>
       </c>
@@ -5599,19 +5606,19 @@
       <c r="V31" s="12">
         <v>8.82</v>
       </c>
-      <c r="W31" s="74">
+      <c r="W31" s="40">
         <v>11.66</v>
       </c>
-      <c r="X31" s="74">
+      <c r="X31" s="40">
         <v>12.86</v>
       </c>
-      <c r="Y31" s="74">
+      <c r="Y31" s="40">
         <v>14.33</v>
       </c>
-      <c r="Z31" s="74">
+      <c r="Z31" s="40">
         <v>17.670000000000002</v>
       </c>
-      <c r="AA31" s="74">
+      <c r="AA31" s="40">
         <v>19.510000000000002</v>
       </c>
     </row>
@@ -9189,10 +9196,10 @@
       <c r="V83" s="1">
         <v>2770000</v>
       </c>
-      <c r="AC83" s="60" t="s">
+      <c r="AC83" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AD83" s="61"/>
+      <c r="AD83" s="65"/>
     </row>
     <row r="84" spans="1:30" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9261,10 +9268,10 @@
       <c r="V84" s="1">
         <v>41701000</v>
       </c>
-      <c r="AC84" s="62" t="s">
+      <c r="AC84" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="AD84" s="63"/>
+      <c r="AD84" s="66"/>
     </row>
     <row r="85" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9333,10 +9340,10 @@
       <c r="V85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC85" s="23" t="s">
+      <c r="AC85" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="AD85" s="24">
+      <c r="AD85" s="42">
         <f>V17</f>
         <v>136158000</v>
       </c>
@@ -9408,10 +9415,10 @@
       <c r="V86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC86" s="23" t="s">
+      <c r="AC86" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="AD86" s="24">
+      <c r="AD86" s="42">
         <f>V56</f>
         <v>81818000</v>
       </c>
@@ -9483,10 +9490,10 @@
       <c r="V87" s="10">
         <v>603142000</v>
       </c>
-      <c r="AC87" s="23" t="s">
+      <c r="AC87" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="AD87" s="24">
+      <c r="AD87" s="42">
         <f>V61</f>
         <v>2513146000</v>
       </c>
@@ -9558,10 +9565,10 @@
       <c r="V88" s="1">
         <v>-104190000</v>
       </c>
-      <c r="AC88" s="33" t="s">
+      <c r="AC88" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AD88" s="34">
+      <c r="AD88" s="44">
         <f>AD85/(AD86+AD87)</f>
         <v>5.247009207064144E-2</v>
       </c>
@@ -9654,10 +9661,10 @@
         <f t="shared" si="19"/>
         <v>2.9308140540677388E-2</v>
       </c>
-      <c r="AC89" s="23" t="s">
+      <c r="AC89" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="AD89" s="24">
+      <c r="AD89" s="42">
         <f>V27</f>
         <v>178349000</v>
       </c>
@@ -9729,10 +9736,10 @@
       <c r="V90" s="1">
         <v>-2046881000</v>
       </c>
-      <c r="AC90" s="23" t="s">
+      <c r="AC90" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AD90" s="24">
+      <c r="AD90" s="42">
         <f>V25</f>
         <v>718508000</v>
       </c>
@@ -9804,10 +9811,10 @@
       <c r="V91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC91" s="33" t="s">
+      <c r="AC91" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="AD91" s="34">
+      <c r="AD91" s="44">
         <f>AD89/AD90</f>
         <v>0.24822131416769194</v>
       </c>
@@ -9879,10 +9886,10 @@
       <c r="V92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC92" s="35" t="s">
+      <c r="AC92" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="AD92" s="36">
+      <c r="AD92" s="44">
         <f>AD88*(1-AD91)</f>
         <v>3.9445896862367033E-2</v>
       </c>
@@ -9954,10 +9961,10 @@
       <c r="V93" s="1">
         <v>-20000</v>
       </c>
-      <c r="AC93" s="62" t="s">
+      <c r="AC93" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="AD93" s="63"/>
+      <c r="AD93" s="66"/>
     </row>
     <row r="94" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10026,11 +10033,12 @@
       <c r="V94" s="10">
         <v>-2151091000</v>
       </c>
-      <c r="AC94" s="23" t="s">
+      <c r="AC94" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="AD94" s="37">
-        <v>4.095E-2</v>
+      <c r="AD94" s="45">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0119999999999996E-2</v>
       </c>
     </row>
     <row r="95" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10100,12 +10108,12 @@
       <c r="V95" s="1">
         <v>-575285000</v>
       </c>
-      <c r="AC95" s="23" t="s">
+      <c r="AC95" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="AD95" s="38" cm="1">
+      <c r="AD95" s="46" cm="1">
         <f t="array" ref="AD95">_FV(A1,"Beta")</f>
-        <v>1.9065000000000001</v>
+        <v>1.8893</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10175,10 +10183,10 @@
       <c r="V96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC96" s="23" t="s">
+      <c r="AC96" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AD96" s="37">
+      <c r="AD96" s="45">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10249,12 +10257,12 @@
       <c r="V97" s="1">
         <v>-11477000</v>
       </c>
-      <c r="AC97" s="35" t="s">
+      <c r="AC97" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="AD97" s="36">
+      <c r="AD97" s="44">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
-        <v>0.12302482500000002</v>
+        <v>0.12302248400000002</v>
       </c>
     </row>
     <row r="98" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10324,10 +10332,10 @@
       <c r="V98" s="1">
         <v>0</v>
       </c>
-      <c r="AC98" s="62" t="s">
+      <c r="AC98" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="AD98" s="63"/>
+      <c r="AD98" s="66"/>
     </row>
     <row r="99" spans="1:30" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10396,10 +10404,10 @@
       <c r="V99" s="1">
         <v>2116421000</v>
       </c>
-      <c r="AC99" s="23" t="s">
+      <c r="AC99" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="AD99" s="24">
+      <c r="AD99" s="42">
         <f>AD86+AD87</f>
         <v>2594964000</v>
       </c>
@@ -10471,12 +10479,12 @@
       <c r="V100" s="10">
         <v>1529659000</v>
       </c>
-      <c r="AC100" s="33" t="s">
+      <c r="AC100" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="AD100" s="34">
+      <c r="AD100" s="44">
         <f>AD99/AD103</f>
-        <v>0.28141447843038109</v>
+        <v>0.29012414509486206</v>
       </c>
     </row>
     <row r="101" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10546,12 +10554,12 @@
       <c r="V101" s="1">
         <v>-3750000</v>
       </c>
-      <c r="AC101" s="23" t="s">
+      <c r="AC101" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="AD101" s="39" cm="1">
+      <c r="AD101" s="47" cm="1">
         <f t="array" ref="AD101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6626182028</v>
+        <v>6349358780</v>
       </c>
     </row>
     <row r="102" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10621,12 +10629,12 @@
       <c r="V102" s="10">
         <v>-22040000</v>
       </c>
-      <c r="AC102" s="33" t="s">
+      <c r="AC102" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="AD102" s="34">
+      <c r="AD102" s="44">
         <f>AD101/AD103</f>
-        <v>0.71858552156961897</v>
+        <v>0.70987585490513794</v>
       </c>
     </row>
     <row r="103" spans="1:30" ht="20" x14ac:dyDescent="0.25">
@@ -10696,12 +10704,15 @@
       <c r="V103" s="1">
         <v>216925000</v>
       </c>
-      <c r="AC103" s="35" t="s">
+      <c r="AB103" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC103" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="AD103" s="40">
+      <c r="AD103" s="48">
         <f>AD99+AD101</f>
-        <v>9221146028</v>
+        <v>8944322780</v>
       </c>
     </row>
     <row r="104" spans="1:30" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10771,10 +10782,34 @@
       <c r="V104" s="11">
         <v>194885000</v>
       </c>
-      <c r="AC104" s="62" t="s">
+      <c r="W104" s="67">
+        <f>(W106/V107)-1</f>
+        <v>0.3556414244255961</v>
+      </c>
+      <c r="X104" s="67">
+        <f>(X106/W106)-1</f>
+        <v>0.18273211117681853</v>
+      </c>
+      <c r="Y104" s="67">
+        <f>(Y106/X106)-1</f>
+        <v>0.10487500000000005</v>
+      </c>
+      <c r="Z104" s="67">
+        <f>(Z106/Y106)-1</f>
+        <v>2.9528227175019905E-2</v>
+      </c>
+      <c r="AA104" s="67">
+        <f>(AA106/Z106)-1</f>
+        <v>0.2384615384615385</v>
+      </c>
+      <c r="AB104" s="67">
+        <f>SUM(W104:AA104)/5</f>
+        <v>0.18224766024779462</v>
+      </c>
+      <c r="AC104" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="AD104" s="63"/>
+      <c r="AD104" s="66"/>
     </row>
     <row r="105" spans="1:30" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10860,35 +10895,35 @@
         <f>(V22*(1-$AD$91))+V77+V88+V81</f>
         <v>571830227.64395118</v>
       </c>
-      <c r="W105" s="41">
+      <c r="W105" s="27">
         <f>V105*(1+$AD$106)</f>
         <v>643180819.69187975</v>
       </c>
-      <c r="X105" s="41">
+      <c r="X105" s="27">
         <f t="shared" ref="X105:AA105" si="21">W105*(1+$AD$106)</f>
         <v>723434241.18022704</v>
       </c>
-      <c r="Y105" s="41">
+      <c r="Y105" s="27">
         <f t="shared" si="21"/>
         <v>813701350.05382907</v>
       </c>
-      <c r="Z105" s="41">
+      <c r="Z105" s="27">
         <f t="shared" si="21"/>
         <v>915231612.48110533</v>
       </c>
-      <c r="AA105" s="41">
+      <c r="AA105" s="27">
         <f t="shared" si="21"/>
         <v>1029430397.8103894</v>
       </c>
-      <c r="AB105" s="42" t="s">
+      <c r="AB105" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="AC105" s="25" t="s">
+      <c r="AC105" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="AD105" s="26">
+      <c r="AD105" s="50">
         <f>(AD100*AD92)+(AD102*AD97)</f>
-        <v>9.9504504530377735E-2</v>
+        <v>9.8774898106747999E-2</v>
       </c>
     </row>
     <row r="106" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -10897,107 +10932,107 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:V106" si="22">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="22"/>
         <v>1.8421052631578894E-2</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.32945736434108519</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="22"/>
         <v>15.230320699708454</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="22"/>
         <v>2.8899467097778575</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="22"/>
         <v>-1.1022842717729273</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="22"/>
         <v>4.1289691497366441</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.73607769497095243</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.7025131403268603</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.32973316391359597</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.78323459715639809</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="22"/>
         <v>-5.6923339710303358</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.87200955196062724</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="22"/>
         <v>-2.9977246871444825</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="22"/>
         <v>3.8489179954441912</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="22"/>
         <v>0.20007751300691745</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="22"/>
         <v>-0.47758433398901967</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="22"/>
         <v>3.2124498894758533</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="22"/>
         <v>1.2735414841529957</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="22"/>
         <v>-2.4052858783097819E-2</v>
       </c>
-      <c r="W106" s="64">
-        <v>639200000</v>
-      </c>
-      <c r="X106" s="64">
-        <v>766900000</v>
-      </c>
-      <c r="Y106" s="64">
+      <c r="W106" s="30">
+        <v>676400000</v>
+      </c>
+      <c r="X106" s="30">
+        <v>800000000</v>
+      </c>
+      <c r="Y106" s="30">
         <v>883900000</v>
       </c>
-      <c r="Z106" s="64">
-        <v>906800000</v>
-      </c>
-      <c r="AA106" s="64">
-        <v>1145000000</v>
-      </c>
-      <c r="AB106" s="42" t="s">
+      <c r="Z106" s="30">
+        <v>910000000</v>
+      </c>
+      <c r="AA106" s="30">
+        <v>1127000000</v>
+      </c>
+      <c r="AB106" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AC106" s="43" t="s">
+      <c r="AC106" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="AD106" s="44">
+      <c r="AD106" s="52">
         <f>(SUM(W4:AA4)/5)</f>
         <v>0.12477583135453778</v>
       </c>
@@ -11069,139 +11104,139 @@
       <c r="V107" s="1">
         <v>498952000</v>
       </c>
-      <c r="W107" s="42"/>
-      <c r="X107" s="42"/>
-      <c r="Y107" s="42"/>
-      <c r="Z107" s="42"/>
-      <c r="AA107" s="65">
+      <c r="W107" s="28"/>
+      <c r="X107" s="28"/>
+      <c r="Y107" s="28"/>
+      <c r="Z107" s="28"/>
+      <c r="AA107" s="31">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
-        <v>15752403259.342226</v>
-      </c>
-      <c r="AB107" s="45" t="s">
+        <v>15658103632.058273</v>
+      </c>
+      <c r="AB107" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="AC107" s="46" t="s">
+      <c r="AC107" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="AD107" s="47">
+      <c r="AD107" s="54">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="65">
-        <f t="shared" ref="W108:Y108" si="22">W107+W106</f>
-        <v>639200000</v>
-      </c>
-      <c r="X108" s="65">
-        <f t="shared" si="22"/>
-        <v>766900000</v>
-      </c>
-      <c r="Y108" s="65">
-        <f t="shared" si="22"/>
+      <c r="W108" s="31">
+        <f t="shared" ref="W108:Y108" si="23">W107+W106</f>
+        <v>676400000</v>
+      </c>
+      <c r="X108" s="31">
+        <f t="shared" si="23"/>
+        <v>800000000</v>
+      </c>
+      <c r="Y108" s="31">
+        <f t="shared" si="23"/>
         <v>883900000</v>
       </c>
-      <c r="Z108" s="65">
+      <c r="Z108" s="31">
         <f>Z107+Z106</f>
-        <v>906800000</v>
-      </c>
-      <c r="AA108" s="65">
+        <v>910000000</v>
+      </c>
+      <c r="AA108" s="31">
         <f>AA107+AA106</f>
-        <v>16897403259.342226</v>
-      </c>
-      <c r="AB108" s="45" t="s">
+        <v>16785103632.058273</v>
+      </c>
+      <c r="AB108" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="AC108" s="48" t="s">
+      <c r="AC108" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="AD108" s="49">
+      <c r="AD108" s="52">
         <f>AD105</f>
-        <v>9.9504504530377735E-2</v>
+        <v>9.8774898106747999E-2</v>
       </c>
     </row>
     <row r="109" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="58" t="s">
+      <c r="W109" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="X109" s="59"/>
+      <c r="X109" s="63"/>
     </row>
     <row r="110" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="50" t="s">
+      <c r="W110" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="X110" s="39">
+      <c r="X110" s="47">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
-        <v>13016805494.235794</v>
+        <v>13049317584.311171</v>
       </c>
     </row>
     <row r="111" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="50" t="s">
+      <c r="W111" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="X111" s="39">
+      <c r="X111" s="47">
         <f>V40</f>
         <v>191629000</v>
       </c>
     </row>
     <row r="112" spans="1:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="50" t="s">
+      <c r="W112" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="X112" s="39">
+      <c r="X112" s="47">
         <f>AD99</f>
         <v>2594964000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="50" t="s">
+      <c r="W113" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="X113" s="39">
+      <c r="X113" s="47">
         <f>X110+X111-X112</f>
-        <v>10613470494.235794</v>
+        <v>10645982584.311171</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="50" t="s">
+      <c r="W114" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="X114" s="51">
+      <c r="X114" s="56">
         <f>V34*(1+(5*AB16))</f>
         <v>52932124.790336579</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="52" t="s">
+      <c r="W115" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="X115" s="53">
+      <c r="X115" s="58">
         <f>X113/X114</f>
-        <v>200.51094748747769</v>
+        <v>201.12516976183673</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="50" t="s">
+      <c r="W116" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="X116" s="54" cm="1">
+      <c r="X116" s="59" cm="1">
         <f t="array" ref="X116">_FV(A1,"Price")</f>
-        <v>106.83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="55" t="s">
+      <c r="W117" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="X117" s="56">
+      <c r="X117" s="60">
         <f>X115/X116-1</f>
-        <v>0.8769161049094607</v>
+        <v>0.95267155108579349</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="55" t="s">
+      <c r="W118" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="X118" s="57" t="str">
+      <c r="X118" s="61" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Consumer/Crocs.xlsx
+++ b/Consumer/Crocs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D5376E-B5EB-C84D-88C6-AC9ACAA896FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D09DFA1-9B88-4946-AB0B-8F6D437A173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1569,7 +1569,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5579999999999996E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1707,10 +1707,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>151.32</v>
-    <v>67.61</v>
-    <v>1.9177999999999999</v>
-    <v>-4.62</v>
-    <v>-5.2853999999999998E-2</v>
+    <v>74</v>
+    <v>1.8916999999999999</v>
+    <v>1.1399999999999999</v>
+    <v>1.3769999999999999E-2</v>
     <v>USD</v>
     <v>Crocs, Inc. is engaged in the design, development, marketing, distribution, and sale of casual lifestyle footwear and accessories for women, men and children. The Company's Crocs Brands collection contain Croslite material, a proprietary, molded footwear technology. The Company’s segments includes North America for the Crocs Brand, operating throughout the United States of America (US) and Canada; Asia Pacific for the Crocs Brand, operating throughout Asia, Australia, and New Zealand; Europe, Middle East, Africa, and Latin America (EMEALA) for the Crocs Brand; and (iv) the HEYDUDE Brand. The Company sells its products in approximately 85 countries, through two distribution channels: wholesale and direct-to-consumer. Its wholesale channel includes domestic and international multi-brand retailers, mono-branded partner stores, e-tailors and distributors. Its direct-to-consumer channel includes Company-operated retail stores, Company-operated e-commerce sites and third-party marketplaces.</v>
     <v>6680</v>
@@ -1718,24 +1718,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>13601 Via Varra, BROOMFIELD, CO, 80020 US</v>
-    <v>82.85</v>
+    <v>87.424999999999997</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45232.999198657031</v>
+    <v>45233.999497128905</v>
     <v>0</v>
-    <v>74</v>
-    <v>5103528285</v>
+    <v>82.584999999999994</v>
+    <v>5173803000</v>
     <v>CROCS, INC.</v>
     <v>CROCS, INC.</v>
-    <v>74.2</v>
-    <v>7.6252000000000004</v>
-    <v>87.41</v>
+    <v>84</v>
+    <v>7.7302</v>
     <v>82.79</v>
+    <v>83.93</v>
     <v>61644260</v>
     <v>CROX</v>
     <v>CROCS, INC. (XNAS:CROX)</v>
-    <v>1038</v>
-    <v>1327773</v>
+    <v>187</v>
+    <v>1533529</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -1888,10 +1888,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -13837,7 +13837,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13886,7 +13886,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5103528285</v>
+        <v>5173803000</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>201</v>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="I3" s="39">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>15926395881.890026</v>
+        <v>15605129381.443071</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>205</v>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="I4" s="49">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>13246552160.750717</v>
+        <v>12964996397.70929</v>
       </c>
       <c r="J4" s="46" t="s">
         <v>210</v>
@@ -14009,14 +14009,14 @@
       </c>
       <c r="I5" s="49">
         <f>I4+G5-G6</f>
-        <v>11123558160.750717</v>
+        <v>10842002397.70929</v>
       </c>
       <c r="J5" s="46" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="52" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>82.79</v>
+        <v>83.93</v>
       </c>
       <c r="L5" s="35" t="s">
         <v>218</v>
@@ -14034,7 +14034,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="55">
         <f>O20/F10</f>
-        <v>1.2685876920208798</v>
+        <v>1.2860559284116331</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>220</v>
@@ -14062,14 +14062,14 @@
       </c>
       <c r="I6" s="57">
         <f>N25</f>
-        <v>9.7725179544045568E-2</v>
+        <v>9.9222390067290292E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="58">
         <f>I5/G4</f>
-        <v>180.44759010410243</v>
+        <v>175.88016139230626</v>
       </c>
       <c r="L6" s="59" t="s">
         <v>224</v>
@@ -14087,14 +14087,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="62">
         <f>O20/F12</f>
-        <v>6.7506987896825397</v>
+        <v>6.8436547619047623</v>
       </c>
       <c r="B7" s="63" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="64">
         <f>F14/A3</f>
-        <v>0.13284926861143084</v>
+        <v>0.13104480398654531</v>
       </c>
       <c r="D7" s="65" t="s">
         <v>227</v>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>1.1795819555997391</v>
+        <v>1.0955577432658914</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>230</v>
@@ -14426,7 +14426,7 @@
       </c>
       <c r="O14" s="90">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5579999999999996E-2</v>
       </c>
       <c r="P14" s="42"/>
     </row>
@@ -14476,7 +14476,7 @@
       </c>
       <c r="O15" s="94" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.9177999999999999</v>
+        <v>1.8916999999999999</v>
       </c>
       <c r="P15" s="42"/>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="O17" s="101">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.11635245000000001</v>
+        <v>0.11825911400000001</v>
       </c>
       <c r="P17" s="42"/>
     </row>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="O20" s="103" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5103528285</v>
+        <v>5173803000</v>
       </c>
       <c r="P20" s="42"/>
     </row>
@@ -14628,7 +14628,7 @@
       </c>
       <c r="O21" s="103">
         <f>O19+O20</f>
-        <v>7392757285</v>
+        <v>7463032000</v>
       </c>
       <c r="P21" s="42"/>
     </row>
@@ -14651,7 +14651,7 @@
       </c>
       <c r="O22" s="104">
         <f>(O19/O21)</f>
-        <v>0.30965834691271077</v>
+        <v>0.30674248750373845</v>
       </c>
       <c r="P22" s="42"/>
     </row>
@@ -14674,7 +14674,7 @@
       </c>
       <c r="O23" s="105">
         <f>O20/O21</f>
-        <v>0.69034165308728923</v>
+        <v>0.69325751249626155</v>
       </c>
       <c r="P23" s="42"/>
     </row>
@@ -14714,7 +14714,7 @@
       <c r="M25" s="81"/>
       <c r="N25" s="109">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.7725179544045568E-2</v>
+        <v>9.9222390067290292E-2</v>
       </c>
       <c r="O25" s="110"/>
       <c r="P25" s="42"/>

--- a/Consumer/Crocs.xlsx
+++ b/Consumer/Crocs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D09DFA1-9B88-4946-AB0B-8F6D437A173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C7C5FF-85D1-AC48-8E36-29E34882046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>Projected Shares (0%)</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -980,6 +986,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1063,7 +1075,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1108,65 +1120,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1175,23 +1130,212 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,7 +1345,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1209,7 +1375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1270,251 +1436,261 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1552,6 +1728,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Quality"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1569,7 +1746,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5579999999999996E-2</v>
+            <v>4.4160000000000005E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1581,6 +1758,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1708,9 +1886,9 @@
     <v>Powered by Refinitiv</v>
     <v>151.32</v>
     <v>74</v>
-    <v>1.8916999999999999</v>
-    <v>1.1399999999999999</v>
-    <v>1.3769999999999999E-2</v>
+    <v>1.8637999999999999</v>
+    <v>0.89</v>
+    <v>9.4979999999999995E-3</v>
     <v>USD</v>
     <v>Crocs, Inc. is engaged in the design, development, marketing, distribution, and sale of casual lifestyle footwear and accessories for women, men and children. The Company's Crocs Brands collection contain Croslite material, a proprietary, molded footwear technology. The Company’s segments includes North America for the Crocs Brand, operating throughout the United States of America (US) and Canada; Asia Pacific for the Crocs Brand, operating throughout Asia, Australia, and New Zealand; Europe, Middle East, Africa, and Latin America (EMEALA) for the Crocs Brand; and (iv) the HEYDUDE Brand. The Company sells its products in approximately 85 countries, through two distribution channels: wholesale and direct-to-consumer. Its wholesale channel includes domestic and international multi-brand retailers, mono-branded partner stores, e-tailors and distributors. Its direct-to-consumer channel includes Company-operated retail stores, Company-operated e-commerce sites and third-party marketplaces.</v>
     <v>6680</v>
@@ -1718,24 +1896,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>13601 Via Varra, BROOMFIELD, CO, 80020 US</v>
-    <v>87.424999999999997</v>
+    <v>94.86</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45233.999497128905</v>
+    <v>45254.916580960155</v>
     <v>0</v>
-    <v>82.584999999999994</v>
-    <v>5173803000</v>
+    <v>93.394999999999996</v>
+    <v>5728997000</v>
     <v>CROCS, INC.</v>
     <v>CROCS, INC.</v>
-    <v>84</v>
-    <v>7.7302</v>
-    <v>82.79</v>
-    <v>83.93</v>
-    <v>61644260</v>
+    <v>93.73</v>
+    <v>8.7119999999999997</v>
+    <v>93.7</v>
+    <v>94.59</v>
+    <v>60566620</v>
     <v>CROX</v>
     <v>CROCS, INC. (XNAS:CROX)</v>
-    <v>187</v>
-    <v>1533529</v>
+    <v>437545</v>
+    <v>1623425</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2329,7 +2507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A147" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J21" sqref="J21"/>
     </sheetView>
@@ -13834,1738 +14012,1921 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57513F0-E314-B34F-A511-B3AE56BC9899}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="e" vm="1">
+    <row r="1" spans="1:18" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="112" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-    </row>
-    <row r="2" spans="1:16" s="112" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+    </row>
+    <row r="2" spans="1:18" s="113" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5173803000</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>5728997000</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="47">
         <f>Financials!O8*0.01</f>
         <v>0.5494</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="47">
         <f>SUM(C11:E11)/3</f>
         <v>0.44403963179612432</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="49">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-4.0077158278195968E-2</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="39">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>15605129381.443071</v>
-      </c>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="50">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>15310430966.363028</v>
+      </c>
+      <c r="J3" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="113" t="s">
+      <c r="K3" s="52">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="114"/>
-      <c r="P3" s="42"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43">
+      <c r="O3" s="115"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-2122994000</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="36">
         <f>Financials!O17*0.01</f>
         <v>0.26690000000000003</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="36">
         <f>SUM(C13:E13)/3</f>
         <v>0.89400835480428575</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="57">
         <f>A5*(1+(5*0))</f>
-        <v>61644260</v>
-      </c>
-      <c r="H4" s="48" t="s">
+        <v>60566620</v>
+      </c>
+      <c r="H4" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="I4" s="49">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>12964996397.70929</v>
-      </c>
-      <c r="J4" s="46" t="s">
+      <c r="I4" s="35">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>12706802009.785097</v>
+      </c>
+      <c r="J4" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="50">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="115" t="s">
+      <c r="K4" s="58" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>9.4979999999999995E-3</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="116" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="116"/>
-      <c r="P4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" cm="1">
+      <c r="O4" s="117"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>61644260</v>
-      </c>
-      <c r="B5" s="44" t="s">
+        <v>60566620</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="51">
-        <f>Financials!O34*0.01</f>
-        <v>0.1721</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="36">
+        <f>F14</f>
+        <v>0.18791946308724833</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="45">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="36">
+        <f>SUM(C16:E16)/3</f>
         <v>1.5540517997925181</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="57">
         <f>Financials!O56</f>
         <v>166235000</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>10842002397.70929</v>
-      </c>
-      <c r="J5" s="46" t="s">
+        <v>10583808009.785097</v>
+      </c>
+      <c r="J5" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="52" cm="1">
+      <c r="K5" s="61" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>83.93</v>
-      </c>
-      <c r="L5" s="35" t="s">
+        <v>94.59</v>
+      </c>
+      <c r="L5" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="53" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="98">
         <f>Financials!O20</f>
         <v>168092000</v>
       </c>
-      <c r="P5" s="42"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55">
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="63">
         <f>O20/F10</f>
-        <v>1.2860559284116331</v>
-      </c>
-      <c r="B6" s="44" t="s">
+        <v>1.4240608998260005</v>
+      </c>
+      <c r="B6" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="45">
-        <f>Financials!O190</f>
-        <v>0.22634559864196385</v>
-      </c>
-      <c r="D6" s="56" t="s">
+      <c r="C6" s="36">
+        <f>F17</f>
+        <v>0.168530947054437</v>
+      </c>
+      <c r="D6" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="36">
         <f>Financials!O33/Financials!O126</f>
         <v>0.56236414528154388</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="57">
         <f>Financials!O96+Financials!O105</f>
         <v>2289229000</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="58">
         <f>N25</f>
-        <v>9.9222390067290292E-2</v>
-      </c>
-      <c r="J6" s="48" t="s">
+        <v>0.10065103833750154</v>
+      </c>
+      <c r="J6" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="64">
         <f>I5/G4</f>
-        <v>175.88016139230626</v>
-      </c>
-      <c r="L6" s="59" t="s">
+        <v>174.74655197508292</v>
+      </c>
+      <c r="L6" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="60" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6" s="98">
         <f>Financials!O96</f>
         <v>77656000</v>
       </c>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66">
         <f>O20/F12</f>
-        <v>6.8436547619047623</v>
-      </c>
-      <c r="B7" s="63" t="s">
+        <v>7.5780383597883594</v>
+      </c>
+      <c r="B7" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="64">
-        <f>F14/A3</f>
-        <v>0.13104480398654531</v>
-      </c>
-      <c r="D7" s="65" t="s">
+      <c r="C7" s="68">
+        <f>F15/A3</f>
+        <v>0.11834532292476327</v>
+      </c>
+      <c r="D7" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="69">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.22367551529656196</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="70">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.9242231169464314</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="72">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>1.0955577432658914</v>
-      </c>
-      <c r="L7" s="72" t="s">
+        <v>0.8474104236714548</v>
+      </c>
+      <c r="L7" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="60" t="s">
+      <c r="M7" s="34"/>
+      <c r="N7" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="98">
         <f>Financials!O105</f>
         <v>2211573000</v>
       </c>
-      <c r="P7" s="42"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="74" t="s">
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="76"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="100">
         <f>O5/(O6+O7)</f>
         <v>7.3427341694518117E-2</v>
       </c>
-      <c r="P8" s="42"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78">
         <v>2019</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="78">
         <v>2020</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="78">
         <v>2021</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="79">
         <v>2022</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="80">
         <v>2023</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="81">
         <v>2024</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="81">
         <v>2025</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="81">
         <v>2026</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="82">
         <v>2027</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="60" t="s">
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="98">
         <f>Financials!O25</f>
         <v>205113000</v>
       </c>
-      <c r="P9" s="42"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82" t="s">
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="84">
         <v>1230593000</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="84">
         <v>1385951000</v>
       </c>
-      <c r="D10" s="83">
+      <c r="D10" s="84">
         <v>2313416000</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="85">
         <v>3554985000</v>
       </c>
       <c r="F10" s="84">
         <v>4023000000</v>
       </c>
-      <c r="G10" s="83">
+      <c r="G10" s="84">
         <v>4283000000</v>
       </c>
-      <c r="H10" s="83">
+      <c r="H10" s="84">
         <v>4511000000</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="84">
         <v>5277000000</v>
       </c>
-      <c r="J10" s="83">
+      <c r="J10" s="85">
         <v>5766000000</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="L10" s="37"/>
+      <c r="N10" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="O10" s="61">
+      <c r="O10" s="98">
         <f>Financials!O24</f>
         <v>874152000</v>
       </c>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="87"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.12624645191383332</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="38">
         <f t="shared" si="0"/>
         <v>0.6691903249104767</v>
       </c>
-      <c r="E11" s="87">
+      <c r="E11" s="38">
         <f t="shared" si="0"/>
         <v>0.53668211856406289</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="39">
         <f t="shared" si="0"/>
         <v>0.1316503445162216</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>6.4628386776037772E-2</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="38">
         <f t="shared" si="0"/>
         <v>5.3233714685967826E-2</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="38">
         <f t="shared" si="0"/>
         <v>0.16980713810685</v>
       </c>
-      <c r="J11" s="87">
+      <c r="J11" s="88">
         <f t="shared" si="0"/>
         <v>9.2666287663445202E-2</v>
       </c>
-      <c r="K11" s="89">
+      <c r="K11" s="88">
         <f>SUM(F11:J11)/5</f>
         <v>0.10239717434970448</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="60" t="s">
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="90">
+      <c r="O11" s="101">
         <f>O9/O10</f>
         <v>0.23464225901216265</v>
       </c>
-      <c r="P11" s="42"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="84">
         <v>119497000</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="84">
         <v>312861000</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="84">
         <v>725694000</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="84">
         <v>540159000</v>
       </c>
-      <c r="F12" s="84">
+      <c r="F12" s="89">
         <v>756000000</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="84">
         <v>803000000</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="84">
         <v>861000000</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="84">
         <v>1073000000</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="85">
         <v>1200000000</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="91" t="s">
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="O12" s="92">
+      <c r="O12" s="101">
         <f>O8*(1-O11)</f>
         <v>5.6198184366058432E-2</v>
       </c>
-      <c r="P12" s="42"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87">
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="87"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>1.6181494096086095</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="38">
         <f t="shared" si="1"/>
         <v>1.319541265929598</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="38">
         <f t="shared" si="1"/>
         <v>-0.25566561112535036</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="39">
         <f t="shared" si="1"/>
         <v>0.39958789911859283</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G13" s="38">
         <f t="shared" si="1"/>
         <v>6.2169312169312096E-2</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="38">
         <f t="shared" si="1"/>
         <v>7.2229140722291474E-2</v>
       </c>
-      <c r="I13" s="87">
+      <c r="I13" s="38">
         <f t="shared" si="1"/>
         <v>0.24622531939605108</v>
       </c>
-      <c r="J13" s="87">
+      <c r="J13" s="88">
         <f t="shared" si="1"/>
         <v>0.11835973904939423</v>
       </c>
-      <c r="K13" s="89">
+      <c r="K13" s="88">
         <f>SUM(F13:J13)/5</f>
         <v>0.17971428209112833</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="115" t="s">
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="116" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="116"/>
-      <c r="P13" s="42"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="O13" s="117"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="42">
+        <f>B12/B10</f>
+        <v>9.7105216753223852E-2</v>
+      </c>
+      <c r="C14" s="42">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.22573741784521964</v>
+      </c>
+      <c r="D14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.3136893667200365</v>
+      </c>
+      <c r="E14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.15194410102996214</v>
+      </c>
+      <c r="F14" s="43">
+        <f t="shared" si="2"/>
+        <v>0.18791946308724833</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.18748540742470232</v>
+      </c>
+      <c r="H14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.19086677011749059</v>
+      </c>
+      <c r="I14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.20333522834944098</v>
+      </c>
+      <c r="J14" s="44">
+        <f t="shared" si="2"/>
+        <v>0.20811654526534859</v>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="101">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.4160000000000005E-2</v>
+      </c>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B15" s="84">
         <v>53382000</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C15" s="84">
         <v>224869000</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D15" s="84">
         <v>511249000</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E15" s="84">
         <v>601312682</v>
       </c>
-      <c r="F14" s="84">
+      <c r="F15" s="89">
         <v>678000000</v>
       </c>
-      <c r="G14" s="83">
+      <c r="G15" s="84">
         <v>771000000</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H15" s="84">
         <v>875000000</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I15" s="84">
         <v>910000000</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J15" s="85">
         <v>1130000000</v>
       </c>
-      <c r="K14" s="85" t="s">
+      <c r="K15" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="O14" s="90">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5579999999999996E-2</v>
-      </c>
-      <c r="P14" s="42"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="O15" s="102" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.8637999999999999</v>
+      </c>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="91"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>3.2124498894758533</v>
       </c>
-      <c r="D15" s="87">
-        <f t="shared" si="2"/>
+      <c r="D16" s="38">
+        <f t="shared" si="3"/>
         <v>1.2735414841529957</v>
       </c>
-      <c r="E15" s="87">
-        <f t="shared" si="2"/>
+      <c r="E16" s="38">
+        <f t="shared" si="3"/>
         <v>0.1761640257487056</v>
       </c>
-      <c r="F15" s="88">
-        <f t="shared" si="2"/>
+      <c r="F16" s="39">
+        <f t="shared" si="3"/>
         <v>0.12753317915220697</v>
       </c>
-      <c r="G15" s="87">
-        <f t="shared" si="2"/>
+      <c r="G16" s="38">
+        <f t="shared" si="3"/>
         <v>0.13716814159292046</v>
       </c>
-      <c r="H15" s="87">
-        <f t="shared" si="2"/>
+      <c r="H16" s="38">
+        <f t="shared" si="3"/>
         <v>0.13488975356679633</v>
       </c>
-      <c r="I15" s="87">
-        <f t="shared" si="2"/>
+      <c r="I16" s="38">
+        <f t="shared" si="3"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="J15" s="87">
-        <f t="shared" si="2"/>
+      <c r="J16" s="88">
+        <f t="shared" si="3"/>
         <v>0.24175824175824179</v>
       </c>
-      <c r="K15" s="89">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="88">
+        <f>SUM(F16:J16)/5</f>
         <v>0.13626986321403312</v>
       </c>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="O15" s="94" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.8916999999999999</v>
-      </c>
-      <c r="P15" s="42"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="O16" s="101">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="42">
+        <f>B15/B10</f>
+        <v>4.3379086342925727E-2</v>
+      </c>
+      <c r="C17" s="42">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.16224888181472505</v>
+      </c>
+      <c r="D17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.22099311148535325</v>
+      </c>
+      <c r="E17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.16914633451336644</v>
+      </c>
+      <c r="F17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.168530947054437</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.18001400887228577</v>
+      </c>
+      <c r="H17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.19397029483484815</v>
+      </c>
+      <c r="I17" s="42">
+        <f t="shared" si="4"/>
+        <v>0.17244646579495926</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" si="4"/>
+        <v>0.19597641345820327</v>
+      </c>
+      <c r="K17" s="44"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="104">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>0.118413792</v>
+      </c>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B18" s="93">
         <v>0.18356121513284809</v>
       </c>
-      <c r="C16" s="95">
+      <c r="C18" s="93">
         <v>0.24182123722703577</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D18" s="93">
         <v>0.52401443883797838</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E18" s="93">
         <v>0.18695770013434343</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="O16" s="90">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="42"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="81"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="100" t="s">
-        <v>239</v>
-      </c>
-      <c r="O17" s="101">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.11825911400000001</v>
-      </c>
-      <c r="P17" s="42"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="115" t="s">
+      <c r="F18" s="94"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="116" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="116"/>
-      <c r="P18" s="42"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="106" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Textiles &amp; Apparel</v>
-      </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="117" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2005</v>
-      </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="60" t="s">
+      <c r="O18" s="117"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="103">
+      <c r="O19" s="105">
         <f>O6+O7</f>
         <v>2289229000</v>
       </c>
-      <c r="P19" s="42"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="106" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="105" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>5728997000</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="118" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Textiles &amp; Apparel</v>
+      </c>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2005</v>
+      </c>
+      <c r="D21" s="119"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="105">
+        <f>O19+O20</f>
+        <v>8018226000</v>
+      </c>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="118" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Crocs, Inc. is engaged in the design, development, marketing, distribution, and sale of casual lifestyle footwear and accessories for women, men and children. The Company's Crocs Brands collection contain Croslite material, a proprietary, molded footwear technology. The Company’s segments includes North America for the Crocs Brand, operating throughout the United States of America (US) and Canada; Asia Pacific for the Crocs Brand, operating throughout Asia, Australia, and New Zealand; Europe, Middle East, Africa, and Latin America (EMEALA) for the Crocs Brand; and (iv) the HEYDUDE Brand. The Company sells its products in approximately 85 countries, through two distribution channels: wholesale and direct-to-consumer. Its wholesale channel includes domestic and international multi-brand retailers, mono-branded partner stores, e-tailors and distributors. Its direct-to-consumer channel includes Company-operated retail stores, Company-operated e-commerce sites and third-party marketplaces.</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="103" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5173803000</v>
-      </c>
-      <c r="P20" s="42"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="106"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="O21" s="103">
-        <f>O19+O20</f>
-        <v>7463032000</v>
-      </c>
-      <c r="P21" s="42"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="74" t="s">
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="104">
+      <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>0.30674248750373845</v>
-      </c>
-      <c r="P22" s="42"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="100" t="s">
+        <v>0.28550317738612008</v>
+      </c>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="118"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="105">
+      <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.69325751249626155</v>
-      </c>
-      <c r="P23" s="42"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="106"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="107" t="s">
+        <v>0.71449682261387992</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="108"/>
-      <c r="P24" s="42"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="106"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="109">
+      <c r="O24" s="109"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="118"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.9222390067290292E-2</v>
-      </c>
-      <c r="O25" s="110"/>
-      <c r="P25" s="42"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="106"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="106"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="81"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="81"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="81"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="81"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="81"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="81"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="81"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="81"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="81"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="81"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="81"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="81"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="81"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="81"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="81"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="81"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="81"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="81"/>
-      <c r="P53" s="81"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="81"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="81"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="81"/>
-      <c r="P54" s="81"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="81"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="81"/>
-      <c r="O55" s="81"/>
-      <c r="P55" s="81"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="81"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
-      <c r="P56" s="81"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="81"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="81"/>
-      <c r="P57" s="81"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="81"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="81"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="81"/>
-      <c r="P58" s="81"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="81"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="81"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="81"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="81"/>
-      <c r="P59" s="81"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="81"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="81"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
+        <v>0.10065103833750154</v>
+      </c>
+      <c r="O25" s="111"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="118"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="118"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="118"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="118"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="118"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="34"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="34"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="34"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="34"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="34"/>
+      <c r="P63" s="34"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="34"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="34"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="34"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="42"/>
-      <c r="P71" s="42"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="34"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="42"/>
-      <c r="P72" s="42"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="42"/>
-      <c r="P73" s="42"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
+      <c r="O74" s="34"/>
+      <c r="P74" s="34"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="34"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="42"/>
-      <c r="P78" s="42"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="42"/>
-      <c r="P79" s="42"/>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="42"/>
-      <c r="P80" s="42"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="42"/>
-      <c r="P81" s="42"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
+      <c r="O82" s="34"/>
+      <c r="P82" s="34"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="42"/>
-      <c r="P83" s="42"/>
+      <c r="O83" s="34"/>
+      <c r="P83" s="34"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
+      <c r="O84" s="34"/>
+      <c r="P84" s="34"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="42"/>
-      <c r="P85" s="42"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="42"/>
-      <c r="P86" s="42"/>
+      <c r="O86" s="34"/>
+      <c r="P86" s="34"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="42"/>
-      <c r="P87" s="42"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="42"/>
-      <c r="P88" s="42"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="42"/>
-      <c r="P89" s="42"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="42"/>
-      <c r="P90" s="42"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="42"/>
-      <c r="P91" s="42"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="42"/>
-      <c r="P92" s="42"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="42"/>
-      <c r="P93" s="42"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="42"/>
-      <c r="P94" s="42"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="42"/>
-      <c r="P95" s="42"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="42"/>
-      <c r="P96" s="42"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="42"/>
-      <c r="P97" s="42"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="42"/>
-      <c r="P98" s="42"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="42"/>
-      <c r="P99" s="42"/>
+      <c r="O99" s="34"/>
+      <c r="P99" s="34"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="42"/>
-      <c r="P100" s="42"/>
+      <c r="O100" s="34"/>
+      <c r="P100" s="34"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="42"/>
-      <c r="P101" s="42"/>
+      <c r="O101" s="34"/>
+      <c r="P101" s="34"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="42"/>
-      <c r="P102" s="42"/>
+      <c r="O102" s="34"/>
+      <c r="P102" s="34"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="42"/>
-      <c r="P103" s="42"/>
+      <c r="O103" s="34"/>
+      <c r="P103" s="34"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="42"/>
-      <c r="P104" s="42"/>
+      <c r="O104" s="34"/>
+      <c r="P104" s="34"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="42"/>
-      <c r="P105" s="42"/>
+      <c r="O105" s="34"/>
+      <c r="P105" s="34"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="42"/>
-      <c r="P106" s="42"/>
+      <c r="O106" s="34"/>
+      <c r="P106" s="34"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="42"/>
-      <c r="P107" s="42"/>
+      <c r="O107" s="34"/>
+      <c r="P107" s="34"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="42"/>
-      <c r="P108" s="42"/>
+      <c r="O108" s="34"/>
+      <c r="P108" s="34"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="42"/>
-      <c r="P109" s="42"/>
+      <c r="O109" s="34"/>
+      <c r="P109" s="34"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="42"/>
-      <c r="P110" s="42"/>
+      <c r="O110" s="34"/>
+      <c r="P110" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -15573,8 +15934,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:CROX/explorer/revenue_proj" xr:uid="{E6C844F8-1DA4-C948-A17D-E24D30A57CF5}"/>

--- a/Consumer/Crocs.xlsx
+++ b/Consumer/Crocs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C7C5FF-85D1-AC48-8E36-29E34882046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00773A4C-A2B6-D642-8828-D634CC8A76DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1723,12 +1723,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Quality"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1746,7 +1748,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.4160000000000005E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1759,6 +1761,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1886,9 +1890,11 @@
     <v>Powered by Refinitiv</v>
     <v>151.32</v>
     <v>74</v>
-    <v>1.8637999999999999</v>
-    <v>0.89</v>
-    <v>9.4979999999999995E-3</v>
+    <v>1.9742999999999999</v>
+    <v>-0.37</v>
+    <v>-3.5539999999999999E-3</v>
+    <v>0.68</v>
+    <v>6.5550000000000001E-3</v>
     <v>USD</v>
     <v>Crocs, Inc. is engaged in the design, development, marketing, distribution, and sale of casual lifestyle footwear and accessories for women, men and children. The Company's Crocs Brands collection contain Croslite material, a proprietary, molded footwear technology. The Company’s segments includes North America for the Crocs Brand, operating throughout the United States of America (US) and Canada; Asia Pacific for the Crocs Brand, operating throughout Asia, Australia, and New Zealand; Europe, Middle East, Africa, and Latin America (EMEALA) for the Crocs Brand; and (iv) the HEYDUDE Brand. The Company sells its products in approximately 85 countries, through two distribution channels: wholesale and direct-to-consumer. Its wholesale channel includes domestic and international multi-brand retailers, mono-branded partner stores, e-tailors and distributors. Its direct-to-consumer channel includes Company-operated retail stores, Company-operated e-commerce sites and third-party marketplaces.</v>
     <v>6680</v>
@@ -1896,24 +1902,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>13601 Via Varra, BROOMFIELD, CO, 80020 US</v>
-    <v>94.86</v>
+    <v>105.95</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45254.916580960155</v>
+    <v>45269.039223564061</v>
     <v>0</v>
-    <v>93.394999999999996</v>
-    <v>5728997000</v>
+    <v>103.13200000000001</v>
+    <v>6283181158</v>
     <v>CROCS, INC.</v>
     <v>CROCS, INC.</v>
-    <v>93.73</v>
-    <v>8.7119999999999997</v>
-    <v>93.7</v>
-    <v>94.59</v>
+    <v>103.4</v>
+    <v>9.5888000000000009</v>
+    <v>104.11</v>
+    <v>103.74</v>
+    <v>104.42</v>
     <v>60566620</v>
     <v>CROX</v>
     <v>CROCS, INC. (XNAS:CROX)</v>
-    <v>437545</v>
-    <v>1623425</v>
+    <v>928222</v>
+    <v>1682741</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -1945,6 +1952,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1965,6 +1974,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1981,7 +1991,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1992,13 +2002,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2064,13 +2077,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2115,6 +2134,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2122,6 +2144,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -14064,7 +14089,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5728997000</v>
+        <v>6283181158</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>201</v>
@@ -14092,7 +14117,7 @@
       </c>
       <c r="I3" s="50">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>15310430966.363028</v>
+        <v>14102179078.06097</v>
       </c>
       <c r="J3" s="51" t="s">
         <v>205</v>
@@ -14144,14 +14169,14 @@
       </c>
       <c r="I4" s="35">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>12706802009.785097</v>
+        <v>11649074611.721304</v>
       </c>
       <c r="J4" s="56" t="s">
         <v>210</v>
       </c>
       <c r="K4" s="58" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>9.4979999999999995E-3</v>
+        <v>-3.5539999999999999E-3</v>
       </c>
       <c r="L4" s="59" t="s">
         <v>251</v>
@@ -14196,14 +14221,14 @@
       </c>
       <c r="I5" s="35">
         <f>I4+G5-G6</f>
-        <v>10583808009.785097</v>
+        <v>9526080611.7213039</v>
       </c>
       <c r="J5" s="56" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="61" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>94.59</v>
+        <v>103.74</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>218</v>
@@ -14223,7 +14248,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="63">
         <f>O20/F10</f>
-        <v>1.4240608998260005</v>
+        <v>1.5618148540889882</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>220</v>
@@ -14251,14 +14276,14 @@
       </c>
       <c r="I6" s="58">
         <f>N25</f>
-        <v>0.10065103833750154</v>
+        <v>0.10713269691078534</v>
       </c>
       <c r="J6" s="56" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="64">
         <f>I5/G4</f>
-        <v>174.74655197508292</v>
+        <v>157.28268494628401</v>
       </c>
       <c r="L6" s="65" t="s">
         <v>224</v>
@@ -14278,14 +14303,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66">
         <f>O20/F12</f>
-        <v>7.5780383597883594</v>
+        <v>8.3110861878306874</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="68">
         <f>F15/A3</f>
-        <v>0.11834532292476327</v>
+        <v>0.10790712267411597</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>227</v>
@@ -14312,7 +14337,7 @@
       </c>
       <c r="K7" s="74">
         <f>K6/K5-1</f>
-        <v>0.8474104236714548</v>
+        <v>0.51612381864549861</v>
       </c>
       <c r="L7" s="75" t="s">
         <v>230</v>
@@ -14639,7 +14664,7 @@
       </c>
       <c r="O14" s="101">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.4160000000000005E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
@@ -14686,7 +14711,7 @@
       </c>
       <c r="O15" s="102" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.8637999999999999</v>
+        <v>1.9742999999999999</v>
       </c>
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
@@ -14791,7 +14816,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>0.118413792</v>
+        <v>0.12569029700000001</v>
       </c>
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
@@ -14873,7 +14898,7 @@
       </c>
       <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5728997000</v>
+        <v>6283181158</v>
       </c>
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
@@ -14903,7 +14928,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>8018226000</v>
+        <v>8572410158</v>
       </c>
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
@@ -14931,7 +14956,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>0.28550317738612008</v>
+        <v>0.26704613496166313</v>
       </c>
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
@@ -14956,7 +14981,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.71449682261387992</v>
+        <v>0.73295386503833682</v>
       </c>
       <c r="P23" s="34"/>
       <c r="Q23" s="34"/>
@@ -15000,7 +15025,7 @@
       <c r="M25" s="37"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>0.10065103833750154</v>
+        <v>0.10713269691078534</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="34"/>
